--- a/ExcelToXML_DB_Converter/Excel/2024/Bring_Contribuicoes_BPI_2024.12.xlsx
+++ b/ExcelToXML_DB_Converter/Excel/2024/Bring_Contribuicoes_BPI_2024.12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Desktop\TaniaAlmeida-FichRH\AON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcmo\Documents\BringGlobal-1\ExcelToXML_DB_Converter\Excel\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{275D8151-71BE-4B92-B0E3-957223BDE2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60449B0-AB73-49CB-89F5-8FB38F693F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3E0BDA9E-064A-4265-A314-C90777C9ACFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{3E0BDA9E-064A-4265-A314-C90777C9ACFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="2" r:id="rId1"/>
@@ -153,7 +153,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="182" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -329,15 +329,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -364,9 +364,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,18 +373,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -412,16 +406,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -753,121 +744,120 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="5" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
         <v>514915420</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <f>+SUMIF('Mapa contribuições'!$A:$A,Resumo!$C4,'Mapa contribuições'!R:R)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="18">
         <f>+SUMIF('Mapa contribuições'!$A:$A,Resumo!$C4,'Mapa contribuições'!S:S)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
         <v>510933866</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <f>+SUMIF('Mapa contribuições'!$A:$A,Resumo!$C5,'Mapa contribuições'!R:R)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <f>+SUMIF('Mapa contribuições'!$A:$A,Resumo!$C5,'Mapa contribuições'!S:S)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
         <v>510308457</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <f>+SUMIF('Mapa contribuições'!$A:$A,Resumo!$C6,'Mapa contribuições'!R:R)</f>
         <v>50</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="18">
         <f>+SUMIF('Mapa contribuições'!$A:$A,Resumo!$C6,'Mapa contribuições'!S:S)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
         <v>510107346</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <f>+SUMIF('Mapa contribuições'!$A:$A,Resumo!$C7,'Mapa contribuições'!R:R)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <f>+SUMIF('Mapa contribuições'!$A:$A,Resumo!$C7,'Mapa contribuições'!S:S)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="21">
+      <c r="C8" s="34"/>
+      <c r="D8" s="19">
         <f>+SUM(D4:D7)</f>
         <v>50</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <f>+SUM(E4:E7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="1">
     <mergeCell ref="B8:C8"/>
   </mergeCells>
@@ -881,42 +871,42 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomRight" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" style="14" customWidth="1"/>
-    <col min="21" max="21" width="17.28515625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="2"/>
+    <col min="11" max="11" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="22.109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.44140625" style="13" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
@@ -925,23 +915,23 @@
       <c r="S1" s="2"/>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:24" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+    <row r="2" spans="1:24" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
         <v>45627</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="R2" s="38" t="s">
+      <c r="E2" s="2"/>
+      <c r="R2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38" t="s">
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-    </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -966,7 +956,7 @@
       <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -993,19 +983,19 @@
       <c r="Q3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="23" t="s">
         <v>14</v>
       </c>
       <c r="T3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="V3" s="23" t="s">
         <v>14</v>
       </c>
       <c r="W3" s="11" t="s">
@@ -1015,53 +1005,53 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="27">
         <v>100000099</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="32">
+      <c r="R4" s="29">
         <v>50</v>
       </c>
-      <c r="S4" s="32">
+      <c r="S4" s="29">
         <v>0</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T4" s="30">
         <f>+R4+S4</f>
         <v>50</v>
       </c>
-      <c r="U4" s="34">
+      <c r="U4" s="31">
         <v>1</v>
       </c>
-      <c r="V4" s="34">
+      <c r="V4" s="31">
         <v>0</v>
       </c>
-      <c r="W4" s="35">
+      <c r="W4" s="32">
         <f>+U4+V4</f>
         <v>1</v>
       </c>
